--- a/logs/2024/Clandestine in Chile_ The Adventures of Miguel Littín- Gabriel García Márquez.xlsx
+++ b/logs/2024/Clandestine in Chile_ The Adventures of Miguel Littín- Gabriel García Márquez.xlsx
@@ -430,7 +430,7 @@
         <v>45564</v>
       </c>
       <c r="B1" t="n">
-        <v>763</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45565</v>
       </c>
       <c r="B2" t="n">
-        <v>1055</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45566</v>
       </c>
       <c r="B3" t="n">
-        <v>1625</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
